--- a/P4/Cuestionario SUS DIU.xlsx
+++ b/P4/Cuestionario SUS DIU.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luisg\OneDrive\Documentos\GitHub\RepoOscarDIU\DIU\P4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:20001_{929C38C6-86E0-4221-8174-A07956D7CD70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F18FAFD-21C9-4ED4-B597-0B1AFEC2B960}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,6 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -221,7 +220,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -257,6 +256,19 @@
       <name val="Arial"/>
       <charset val="134"/>
     </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -537,7 +549,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -596,25 +608,7 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -638,9 +632,29 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -918,13 +932,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
   <cols>
-    <col min="2" max="2" width="32.42578125" customWidth="1"/>
+    <col min="2" max="2" width="57.7109375" customWidth="1"/>
     <col min="3" max="3" width="28.7109375" customWidth="1"/>
     <col min="4" max="4" width="32.7109375" customWidth="1"/>
     <col min="5" max="5" width="30.5703125" customWidth="1"/>
@@ -935,62 +949,62 @@
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24" t="s">
+      <c r="D1" s="32"/>
+      <c r="E1" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="24"/>
+      <c r="F1" s="32"/>
     </row>
     <row r="2" spans="1:10" ht="13.5" thickBot="1">
       <c r="A2" s="3"/>
       <c r="B2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="26" t="s">
+      <c r="C2" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="26"/>
-      <c r="E2" s="25" t="s">
+      <c r="D2" s="34"/>
+      <c r="E2" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="25"/>
+      <c r="F2" s="33"/>
     </row>
     <row r="3" spans="1:10" ht="14.25" thickTop="1" thickBot="1">
       <c r="A3" s="3"/>
       <c r="B3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="27" t="s">
+      <c r="C3" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="28"/>
-      <c r="E3" s="29" t="s">
+      <c r="D3" s="36"/>
+      <c r="E3" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="30"/>
+      <c r="F3" s="38"/>
     </row>
     <row r="4" spans="1:10" ht="13.5" customHeight="1" thickTop="1">
-      <c r="C4" s="31" t="s">
+      <c r="C4" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="32"/>
-      <c r="E4" s="35" t="s">
+      <c r="D4" s="26"/>
+      <c r="E4" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="36"/>
+      <c r="F4" s="30"/>
     </row>
     <row r="5" spans="1:10" ht="13.5" customHeight="1">
-      <c r="C5" s="33" t="s">
+      <c r="C5" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="34"/>
-      <c r="E5" s="37" t="s">
+      <c r="D5" s="28"/>
+      <c r="E5" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="34"/>
+      <c r="F5" s="28"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
@@ -1152,17 +1166,17 @@
         <v>2</v>
       </c>
       <c r="E12" s="13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F12" s="14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
     </row>
-    <row r="13" spans="1:10" ht="38.25">
+    <row r="13" spans="1:10" ht="25.5">
       <c r="A13" s="9">
         <v>7</v>
       </c>
@@ -1181,7 +1195,7 @@
       <c r="F13" s="14">
         <v>5</v>
       </c>
-      <c r="G13" s="1"/>
+      <c r="G13" s="40"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
@@ -1248,7 +1262,7 @@
         <v>1</v>
       </c>
       <c r="E16" s="13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F16" s="14">
         <v>1</v>
@@ -1277,7 +1291,7 @@
       </c>
       <c r="F17" s="19">
         <f t="shared" si="0"/>
-        <v>82.5</v>
+        <v>85</v>
       </c>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
@@ -1289,13 +1303,13 @@
       <c r="C18" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D18" s="38" t="s">
+      <c r="D18" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="E18" s="38" t="s">
+      <c r="E18" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="F18" s="38" t="s">
+      <c r="F18" s="24" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1305,6 +1319,7 @@
     </row>
     <row r="20" spans="1:10">
       <c r="B20" s="20"/>
+      <c r="E20" s="39"/>
     </row>
     <row r="21" spans="1:10">
       <c r="B21" s="22"/>
@@ -1335,5 +1350,6 @@
     <mergeCell ref="E3:F3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/P4/Cuestionario SUS DIU.xlsx
+++ b/P4/Cuestionario SUS DIU.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luisg\OneDrive\Documentos\GitHub\RepoOscarDIU\DIU\P4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F18FAFD-21C9-4ED4-B597-0B1AFEC2B960}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F4EF486-4287-4447-BC15-0CACB0AD47B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="60" yWindow="0" windowWidth="28740" windowHeight="13980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="30">
   <si>
     <t>EQUIPO</t>
   </si>
@@ -215,12 +215,15 @@
   <si>
     <t>ACEPTABLE TIPO C</t>
   </si>
+  <si>
+    <t>MARGINAL D</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -256,19 +259,6 @@
       <name val="Arial"/>
       <charset val="134"/>
     </font>
-    <font>
-      <u/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -330,19 +320,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thick">
-        <color rgb="FF00FF00"/>
-      </right>
-      <top style="thick">
-        <color rgb="FF0000FF"/>
-      </top>
-      <bottom style="thick">
-        <color rgb="FF0000FF"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thick">
         <color rgb="FF00FF00"/>
       </left>
@@ -380,17 +357,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thick">
-        <color rgb="FF00FF00"/>
-      </right>
-      <top style="thick">
-        <color rgb="FF0000FF"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thick">
         <color rgb="FF00FF00"/>
       </left>
@@ -545,11 +511,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color rgb="FF0000FF"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF0000FF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color rgb="FF0000FF"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -557,47 +543,47 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -611,50 +597,51 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -930,22 +917,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J27"/>
+  <dimension ref="A1:I27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
   <cols>
-    <col min="2" max="2" width="57.7109375" customWidth="1"/>
-    <col min="3" max="3" width="28.7109375" customWidth="1"/>
-    <col min="4" max="4" width="32.7109375" customWidth="1"/>
-    <col min="5" max="5" width="30.5703125" customWidth="1"/>
-    <col min="6" max="6" width="34.42578125" customWidth="1"/>
+    <col min="2" max="2" width="75.7109375" customWidth="1"/>
+    <col min="3" max="3" width="25.140625" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="25.7109375" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="26.85546875" customWidth="1"/>
+    <col min="6" max="6" width="25.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -958,59 +945,58 @@
       </c>
       <c r="F1" s="32"/>
     </row>
-    <row r="2" spans="1:10" ht="13.5" thickBot="1">
+    <row r="2" spans="1:9" ht="13.5" thickBot="1">
       <c r="A2" s="3"/>
       <c r="B2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="34" t="s">
+      <c r="C2" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="34"/>
-      <c r="E2" s="33" t="s">
+      <c r="D2" s="37"/>
+      <c r="E2" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="33"/>
-    </row>
-    <row r="3" spans="1:10" ht="14.25" thickTop="1" thickBot="1">
+      <c r="F2" s="31"/>
+    </row>
+    <row r="3" spans="1:9" ht="14.25" thickTop="1" thickBot="1">
       <c r="A3" s="3"/>
       <c r="B3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="35" t="s">
+      <c r="C3" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="36"/>
-      <c r="E3" s="37" t="s">
+      <c r="D3" s="39"/>
+      <c r="E3" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="38"/>
-    </row>
-    <row r="4" spans="1:10" ht="13.5" customHeight="1" thickTop="1">
-      <c r="C4" s="25" t="s">
+      <c r="F3" s="30"/>
+    </row>
+    <row r="4" spans="1:9" ht="13.5" customHeight="1" thickTop="1">
+      <c r="C4" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="26"/>
-      <c r="E4" s="29" t="s">
+      <c r="D4" s="34"/>
+      <c r="E4" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="30"/>
-    </row>
-    <row r="5" spans="1:10" ht="13.5" customHeight="1">
-      <c r="C5" s="27" t="s">
+      <c r="F4" s="28"/>
+    </row>
+    <row r="5" spans="1:9" ht="13.5" customHeight="1">
+      <c r="C5" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="28"/>
-      <c r="E5" s="31" t="s">
+      <c r="D5" s="36"/>
+      <c r="E5" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="28"/>
+      <c r="F5" s="26"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-    </row>
-    <row r="6" spans="1:10">
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="4"/>
       <c r="B6" s="4" t="s">
         <v>11</v>
@@ -1030,9 +1016,8 @@
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-    </row>
-    <row r="7" spans="1:10" ht="25.5">
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="9">
         <v>1</v>
       </c>
@@ -1054,9 +1039,8 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-    </row>
-    <row r="8" spans="1:10" ht="25.5">
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="9">
         <v>2</v>
       </c>
@@ -1070,7 +1054,7 @@
         <v>1</v>
       </c>
       <c r="E8" s="13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F8" s="14">
         <v>1</v>
@@ -1078,9 +1062,8 @@
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-    </row>
-    <row r="9" spans="1:10" ht="25.5">
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="9">
         <v>3</v>
       </c>
@@ -1094,7 +1077,7 @@
         <v>5</v>
       </c>
       <c r="E9" s="13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F9" s="14">
         <v>5</v>
@@ -1102,9 +1085,8 @@
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-    </row>
-    <row r="10" spans="1:10" ht="25.5">
+    </row>
+    <row r="10" spans="1:9" ht="14.25" customHeight="1">
       <c r="A10" s="9">
         <v>4</v>
       </c>
@@ -1118,7 +1100,7 @@
         <v>1</v>
       </c>
       <c r="E10" s="13">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F10" s="14">
         <v>1</v>
@@ -1126,9 +1108,8 @@
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-    </row>
-    <row r="11" spans="1:10" ht="25.5">
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="9">
         <v>5</v>
       </c>
@@ -1150,9 +1131,8 @@
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-    </row>
-    <row r="12" spans="1:10" ht="25.5">
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="9">
         <v>6</v>
       </c>
@@ -1174,9 +1154,8 @@
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-    </row>
-    <row r="13" spans="1:10" ht="25.5">
+    </row>
+    <row r="13" spans="1:9" ht="13.5" customHeight="1">
       <c r="A13" s="9">
         <v>7</v>
       </c>
@@ -1195,12 +1174,11 @@
       <c r="F13" s="14">
         <v>5</v>
       </c>
-      <c r="G13" s="40"/>
+      <c r="G13" s="1"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-    </row>
-    <row r="14" spans="1:10" ht="25.5">
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="9">
         <v>8</v>
       </c>
@@ -1222,9 +1200,8 @@
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-    </row>
-    <row r="15" spans="1:10" ht="25.5">
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="9">
         <v>9</v>
       </c>
@@ -1238,17 +1215,16 @@
         <v>5</v>
       </c>
       <c r="E15" s="13">
+        <v>3</v>
+      </c>
+      <c r="F15" s="14">
         <v>4</v>
-      </c>
-      <c r="F15" s="14">
-        <v>3</v>
       </c>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-    </row>
-    <row r="16" spans="1:10" ht="25.5">
+    </row>
+    <row r="16" spans="1:9" ht="14.25" customHeight="1">
       <c r="A16" s="9">
         <v>10</v>
       </c>
@@ -1270,9 +1246,8 @@
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-    </row>
-    <row r="17" spans="1:10" ht="16.5" thickBot="1">
+    </row>
+    <row r="17" spans="1:9" ht="16.5" thickBot="1">
       <c r="A17" s="1"/>
       <c r="B17" s="15" t="s">
         <v>25</v>
@@ -1282,23 +1257,22 @@
         <v>80</v>
       </c>
       <c r="D17" s="17">
-        <f t="shared" ref="D17:F17" si="0">((D7-1)+(5-D8)+(D9-1)+(5-D10)+(D11-1)+(5-D12)+(D13-1)+(5-D14)+(D15-1)+(5-D16))*2.5</f>
+        <f t="shared" ref="D17" si="0">((D7-1)+(5-D8)+(D9-1)+(5-D10)+(D11-1)+(5-D12)+(D13-1)+(5-D14)+(D15-1)+(5-D16))*2.5</f>
         <v>90</v>
       </c>
       <c r="E17" s="18">
-        <f t="shared" si="0"/>
-        <v>70</v>
+        <f>((E7-1)+(5-E8)+(E9-1)+(5-E10)+(E11-1)+(5-E12)+(E13-1)+(5-E14)+(E15-1)+(5-E16))*2.5</f>
+        <v>57.5</v>
       </c>
       <c r="F17" s="19">
-        <f t="shared" si="0"/>
-        <v>85</v>
+        <f>((F7-1)+(5-F8)+(F9-1)+(5-F10)+(F11-1)+(5-F12)+(F13-1)+(5-F14)+(F15-1)+(5-F16))*2.5</f>
+        <v>87.5</v>
       </c>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-    </row>
-    <row r="18" spans="1:10" ht="13.5" thickTop="1">
+    </row>
+    <row r="18" spans="1:9" ht="13.5" thickTop="1">
       <c r="B18" s="20"/>
       <c r="C18" s="2" t="s">
         <v>28</v>
@@ -1307,47 +1281,46 @@
         <v>27</v>
       </c>
       <c r="E18" s="24" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F18" s="24" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:9">
       <c r="B19" s="20"/>
       <c r="C19" s="21"/>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:9">
       <c r="B20" s="20"/>
-      <c r="E20" s="39"/>
-    </row>
-    <row r="21" spans="1:10">
+    </row>
+    <row r="21" spans="1:9">
       <c r="B21" s="22"/>
     </row>
-    <row r="22" spans="1:10">
+    <row r="22" spans="1:9">
       <c r="B22" s="22"/>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" spans="1:9">
       <c r="B23" s="22"/>
     </row>
-    <row r="26" spans="1:10">
+    <row r="26" spans="1:9">
       <c r="B26" s="1"/>
     </row>
-    <row r="27" spans="1:10">
+    <row r="27" spans="1:9">
       <c r="B27" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="10">
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="E5:F5"/>
     <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="E2:F2"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E4:F4"/>
     <mergeCell ref="E3:F3"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="E1:F1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
